--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
@@ -673,7 +673,7 @@
         <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
         <v>2.16</v>
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -700,16 +700,16 @@
         <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
         <v>2.4</v>
@@ -721,7 +721,7 @@
         <v>1.39</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
@@ -748,7 +748,7 @@
         <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -808,7 +808,7 @@
         <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
         <v>3.5</v>
@@ -820,34 +820,34 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
         <v>1.4</v>
@@ -862,13 +862,13 @@
         <v>16.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
         <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
@@ -904,7 +904,7 @@
         <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -1081,7 +1081,7 @@
         <v>2.64</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
         <v>2.68</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G10" t="n">
         <v>3.4</v>
@@ -1762,7 +1762,7 @@
         <v>2.58</v>
       </c>
       <c r="K10" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
         <v>1.8</v>
@@ -2164,7 +2164,7 @@
         <v>1.81</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
         <v>4.3</v>
@@ -2176,7 +2176,7 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.28</v>
@@ -2185,7 +2185,7 @@
         <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R13" t="n">
         <v>1.45</v>
@@ -2212,16 +2212,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
         <v>19.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>10.5</v>
@@ -2293,7 +2293,7 @@
         <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
         <v>3.75</v>
@@ -2431,7 +2431,7 @@
         <v>3.65</v>
       </c>
       <c r="I15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
         <v>3.35</v>
@@ -2467,7 +2467,7 @@
         <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>2.38</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
         <v>4.6</v>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>80</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
         <v>3.85</v>
@@ -2701,10 +2701,10 @@
         <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="J17" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K17" t="n">
         <v>3.15</v>
@@ -2725,7 +2725,7 @@
         <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
@@ -673,19 +673,19 @@
         <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I2" t="n">
         <v>2.16</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -700,10 +700,10 @@
         <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
         <v>2.78</v>
@@ -727,10 +727,10 @@
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB2" t="n">
         <v>17.5</v>
@@ -739,19 +739,19 @@
         <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
         <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
         <v>32</v>
@@ -763,7 +763,7 @@
         <v>38</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
         <v>75</v>
@@ -772,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="3">
@@ -832,22 +832,22 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
         <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V3" t="n">
         <v>1.4</v>
@@ -904,7 +904,7 @@
         <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -1081,7 +1081,7 @@
         <v>2.64</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
         <v>2.68</v>
@@ -1210,7 +1210,7 @@
         <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
@@ -1219,7 +1219,7 @@
         <v>4.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K6" t="n">
         <v>3.25</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
         <v>2.04</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="G8" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>9.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
         <v>2.66</v>
@@ -1753,7 +1753,7 @@
         <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>3.4</v>
@@ -1885,16 +1885,16 @@
         <v>1.64</v>
       </c>
       <c r="G11" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="H11" t="n">
         <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
         <v>1.96</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="n">
         <v>2.2</v>
@@ -2047,7 +2047,7 @@
         <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q12" t="n">
         <v>1.97</v>
@@ -2062,7 +2062,7 @@
         <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
         <v>14.5</v>
@@ -2182,7 +2182,7 @@
         <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
         <v>1.82</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9.800000000000001</v>
@@ -2293,7 +2293,7 @@
         <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I14" t="n">
         <v>3.75</v>
@@ -2311,7 +2311,7 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O14" t="n">
         <v>1.5</v>
@@ -2371,7 +2371,7 @@
         <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>80</v>
@@ -2380,7 +2380,7 @@
         <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>60</v>
@@ -2599,7 +2599,7 @@
         <v>4.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="n">
         <v>1.9</v>
@@ -2695,7 +2695,7 @@
         <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
         <v>2.46</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
@@ -670,7 +670,7 @@
         <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
         <v>2.12</v>
@@ -805,7 +805,7 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
@@ -820,7 +820,7 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -832,31 +832,31 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
         <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
         <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>16.5</v>
@@ -871,43 +871,43 @@
         <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF3" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
         <v>16</v>
       </c>
-      <c r="AG3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
         <v>13.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G4" t="n">
         <v>1.78</v>
@@ -1213,10 +1213,10 @@
         <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.98</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
         <v>2.04</v>
       </c>
       <c r="H7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
         <v>5.4</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1885,13 +1885,13 @@
         <v>1.64</v>
       </c>
       <c r="G11" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
         <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J11" t="n">
         <v>3.65</v>
@@ -1915,7 +1915,7 @@
         <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
         <v>1.97</v>
@@ -2059,10 +2059,10 @@
         <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="n">
         <v>75</v>
@@ -2107,7 +2107,7 @@
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
         <v>24</v>
@@ -2188,7 +2188,7 @@
         <v>1.82</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
         <v>3.1</v>
@@ -2230,10 +2230,10 @@
         <v>18.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2293,7 +2293,7 @@
         <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
         <v>3.75</v>
@@ -2311,13 +2311,13 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P14" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q14" t="n">
         <v>2.52</v>
@@ -2329,10 +2329,10 @@
         <v>5.1</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
         <v>16.5</v>
@@ -2434,10 +2434,10 @@
         <v>3.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
         <v>32</v>
@@ -2569,7 +2569,7 @@
         <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
         <v>3.4</v>
@@ -2587,7 +2587,7 @@
         <v>1.46</v>
       </c>
       <c r="P16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
         <v>2.38</v>
@@ -2599,10 +2599,10 @@
         <v>4.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>32</v>
       </c>
       <c r="AA16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="n">
         <v>7.4</v>
@@ -2659,7 +2659,7 @@
         <v>170</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>110</v>
@@ -2701,7 +2701,7 @@
         <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
         <v>2.84</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
@@ -670,7 +670,7 @@
         <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H2" t="n">
         <v>2.12</v>
@@ -694,10 +694,10 @@
         <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
         <v>1.7</v>
@@ -721,10 +721,10 @@
         <v>1.39</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
         <v>16.5</v>
@@ -736,7 +736,7 @@
         <v>17.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
         <v>11.5</v>
@@ -751,7 +751,7 @@
         <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
         <v>32</v>
@@ -766,10 +766,10 @@
         <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
         <v>13.5</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1.35</v>
@@ -829,28 +829,28 @@
         <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W3" t="n">
         <v>1.84</v>
@@ -862,7 +862,7 @@
         <v>16.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>65</v>
@@ -895,7 +895,7 @@
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>32</v>
@@ -907,7 +907,7 @@
         <v>13.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G4" t="n">
         <v>1.78</v>
@@ -946,10 +946,10 @@
         <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
         <v>4.6</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -1081,7 +1081,7 @@
         <v>2.64</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
         <v>2.68</v>
@@ -1210,7 +1210,7 @@
         <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H6" t="n">
         <v>3.85</v>
@@ -1219,10 +1219,10 @@
         <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="G8" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
         <v>2.58</v>
       </c>
       <c r="K10" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="H11" t="n">
         <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2023,10 +2023,10 @@
         <v>2.2</v>
       </c>
       <c r="H12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.75</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
@@ -2071,25 +2071,25 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
         <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>46</v>
@@ -2107,7 +2107,7 @@
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
         <v>24</v>
@@ -2206,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
         <v>19.5</v>
@@ -2251,10 +2251,10 @@
         <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="n">
         <v>10.5</v>
@@ -2293,10 +2293,10 @@
         <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -2311,10 +2311,10 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
         <v>1.62</v>
@@ -2329,10 +2329,10 @@
         <v>5.1</v>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,43 +2341,43 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
         <v>24</v>
       </c>
       <c r="AA14" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AB14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
         <v>60</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AK14" t="n">
         <v>34</v>
@@ -2392,7 +2392,7 @@
         <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -2428,10 +2428,10 @@
         <v>2.3</v>
       </c>
       <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.7</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
@@ -2446,7 +2446,7 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.39</v>
@@ -2458,13 +2458,13 @@
         <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
         <v>2.04</v>
@@ -2509,7 +2509,7 @@
         <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
         <v>32</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
         <v>2.12</v>
       </c>
       <c r="H16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I16" t="n">
         <v>4.3</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>3.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P16" t="n">
         <v>1.7</v>
@@ -2599,7 +2599,7 @@
         <v>4.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
         <v>1.91</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
@@ -2623,7 +2623,7 @@
         <v>120</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC16" t="n">
         <v>7.6</v>
@@ -2635,13 +2635,13 @@
         <v>70</v>
       </c>
       <c r="AF16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
         <v>80</v>
@@ -2650,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
         <v>48</v>
@@ -2659,7 +2659,7 @@
         <v>170</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>110</v>
@@ -2701,7 +2701,7 @@
         <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J17" t="n">
         <v>2.84</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G2" t="n">
         <v>3.55</v>
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
@@ -703,22 +703,22 @@
         <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V2" t="n">
         <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -727,7 +727,7 @@
         <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
         <v>28</v>
@@ -772,7 +772,7 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3">
@@ -829,31 +829,31 @@
         <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
         <v>1.74</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
         <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
         <v>19.5</v>
@@ -877,7 +877,7 @@
         <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="n">
         <v>15.5</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,37 +923,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:25:00</t>
+          <t>10:15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.67</v>
+        <v>5.1</v>
       </c>
       <c r="G4" t="n">
-        <v>1.78</v>
+        <v>7.4</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>1.64</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.1</v>
       </c>
-      <c r="K4" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:25:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>1.76</v>
       </c>
       <c r="H5" t="n">
-        <v>2.64</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.68</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.39</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.44</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.85</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>2.86</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1463,37 +1463,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.54</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>11.5</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.9</v>
       </c>
-      <c r="K8" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.74</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.35</v>
+        <v>1.61</v>
       </c>
       <c r="H9" t="n">
-        <v>2.94</v>
+        <v>2.46</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>14</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.82</v>
+        <v>1.63</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>1.78</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.98</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.34</v>
+        <v>2.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.4</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.67</v>
+        <v>2.74</v>
       </c>
       <c r="G11" t="n">
-        <v>1.82</v>
+        <v>3.35</v>
       </c>
       <c r="H11" t="n">
-        <v>5.8</v>
+        <v>2.94</v>
       </c>
       <c r="I11" t="n">
-        <v>7.2</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.66</v>
+        <v>1.43</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.24</v>
+        <v>2.84</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>2.82</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>2.58</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>2.98</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.97</v>
+        <v>3.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.8</v>
+        <v>1.67</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>1.82</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.81</v>
+        <v>7.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.82</v>
+        <v>2.24</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,64 +2206,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.6</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>3.65</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>2.9</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.52</v>
+        <v>1.97</v>
       </c>
       <c r="R14" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>5.1</v>
+        <v>3.45</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA14" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
         <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AF14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,67 +2408,67 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.28</v>
+        <v>4.8</v>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>1.79</v>
       </c>
       <c r="I15" t="n">
-        <v>3.65</v>
+        <v>1.81</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.16</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
@@ -2476,64 +2476,64 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z15" t="n">
         <v>12</v>
       </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>24</v>
-      </c>
       <c r="AA15" t="n">
-        <v>70</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>18.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>19</v>
       </c>
       <c r="AI15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK15" t="n">
         <v>60</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>24</v>
-      </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="n">
-        <v>65</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,66 +2543,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T16" t="n">
         <v>2.1</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.06</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,34 +2611,34 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y16" t="n">
         <v>11</v>
       </c>
-      <c r="Y16" t="n">
-        <v>13</v>
-      </c>
       <c r="Z16" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
         <v>22</v>
@@ -2647,156 +2647,426 @@
         <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>2026-02-06</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>20:20:00</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Deportivo Pasto</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F19" t="n">
         <v>3.4</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G19" t="n">
         <v>3.8</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>2.46</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I19" t="n">
         <v>2.68</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J19" t="n">
         <v>2.84</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K19" t="n">
         <v>3.15</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>1.45</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q19" t="n">
         <v>2.88</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
@@ -673,7 +673,7 @@
         <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
         <v>2.16</v>
@@ -706,7 +706,7 @@
         <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T2" t="n">
         <v>1.65</v>
@@ -718,7 +718,7 @@
         <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB2" t="n">
         <v>17.5</v>
@@ -841,7 +841,7 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
         <v>1.66</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H4" t="n">
         <v>1.64</v>
@@ -949,10 +949,10 @@
         <v>1.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="G5" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
         <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.3</v>
       </c>
       <c r="J6" t="n">
         <v>2.68</v>
@@ -1225,94 +1225,94 @@
         <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
         <v>1.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G7" t="n">
         <v>2.44</v>
@@ -1354,100 +1354,100 @@
         <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
         <v>3.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="P7" t="n">
         <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
         <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G9" t="n">
         <v>1.61</v>
@@ -1621,13 +1621,13 @@
         <v>2.46</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
         <v>5.9</v>
@@ -1762,7 +1762,7 @@
         <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
         <v>2.58</v>
@@ -2155,13 +2155,13 @@
         <v>1.67</v>
       </c>
       <c r="G13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H13" t="n">
         <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
         <v>2.2</v>
@@ -2299,10 +2299,10 @@
         <v>3.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q14" t="n">
         <v>1.97</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
         <v>3.45</v>
@@ -2347,7 +2347,7 @@
         <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
         <v>80</v>
@@ -2356,7 +2356,7 @@
         <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>16</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -2437,7 +2437,7 @@
         <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
         <v>2.16</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
         <v>9.800000000000001</v>
@@ -2569,10 +2569,10 @@
         <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y16" t="n">
         <v>11</v>
@@ -2626,7 +2626,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
         <v>16.5</v>
@@ -2728,13 +2728,13 @@
         <v>2.16</v>
       </c>
       <c r="R17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
         <v>2.04</v>
@@ -2797,7 +2797,7 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>2.06</v>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H18" t="n">
         <v>4.4</v>
@@ -2902,7 +2902,7 @@
         <v>18.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF18" t="n">
         <v>11.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
         <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I2" t="n">
         <v>2.16</v>
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
@@ -700,13 +700,13 @@
         <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.65</v>
@@ -718,7 +718,7 @@
         <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -766,7 +766,7 @@
         <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
         <v>29</v>
@@ -907,7 +907,7 @@
         <v>13.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>7.6</v>
+        <v>600</v>
       </c>
       <c r="H4" t="n">
         <v>1.64</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>2.68</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K6" t="n">
         <v>3.1</v>
@@ -1258,7 +1258,7 @@
         <v>1.49</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X6" t="n">
         <v>8.199999999999999</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
         <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.51</v>
@@ -1366,16 +1366,16 @@
         <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.59</v>
       </c>
       <c r="P7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
@@ -1393,7 +1393,7 @@
         <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X7" t="n">
         <v>9.4</v>
@@ -1444,7 +1444,7 @@
         <v>280</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
         <v>150</v>
@@ -1495,7 +1495,7 @@
         <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1510,13 +1510,13 @@
         <v>1.82</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
         <v>1.86</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
         <v>1.61</v>
       </c>
       <c r="H9" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I9" t="n">
         <v>13</v>
@@ -1627,7 +1627,7 @@
         <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Kisvarda</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Kazincbarcika</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="G10" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.1</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.64</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.74</v>
+        <v>1.84</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>1.92</v>
       </c>
       <c r="H11" t="n">
-        <v>2.94</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.52</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.84</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.82</v>
+        <v>1.98</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.58</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>2.98</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>1.34</v>
+        <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.4</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.67</v>
+        <v>3.95</v>
       </c>
       <c r="G13" t="n">
-        <v>1.81</v>
+        <v>4.4</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8</v>
+        <v>1.92</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>2.02</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.68</v>
       </c>
-      <c r="Q13" t="n">
-        <v>2.18</v>
-      </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>2.8</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>2.56</v>
       </c>
       <c r="I14" t="n">
-        <v>3.7</v>
+        <v>2.78</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL14" t="n">
         <v>55</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>40</v>
-      </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>1.65</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.79</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.81</v>
+        <v>5.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.42</v>
+        <v>1.67</v>
       </c>
       <c r="G16" t="n">
-        <v>2.44</v>
+        <v>1.78</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>5.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="R16" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X16" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF16" t="n">
         <v>9.4</v>
       </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>14</v>
-      </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK16" t="n">
         <v>22</v>
       </c>
-      <c r="AI16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>34</v>
-      </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>1.84</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>2.36</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P17" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,260 +2813,1745 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Waldhof Mannheim</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.06</v>
       </c>
-      <c r="G18" t="n">
-        <v>2.08</v>
-      </c>
       <c r="H18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I18" t="n">
         <v>4.4</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q18" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>4.6</v>
+        <v>2.68</v>
       </c>
       <c r="T18" t="n">
-        <v>2.06</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AA18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.4</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF18" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
         <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Egyptian Premier</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Petrojet</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Egyptian Premier</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Al Ittihad (EGY)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Polish Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Lechia Gdansk</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cracovia Krakow</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Polish I Liga</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wisla Krakow</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>GKS Tychy</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>2026-02-06</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>20:20:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Deportivo Pasto</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F30" t="n">
         <v>3.4</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G30" t="n">
         <v>3.8</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H30" t="n">
         <v>2.46</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I30" t="n">
         <v>2.68</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J30" t="n">
         <v>2.84</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K30" t="n">
         <v>3.15</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>1.45</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q30" t="n">
         <v>2.88</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,13 +706,13 @@
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V2" t="n">
         <v>1.86</v>
@@ -811,7 +811,7 @@
         <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -820,34 +820,34 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V3" t="n">
         <v>1.4</v>
@@ -859,7 +859,7 @@
         <v>19.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
         <v>26</v>
@@ -868,7 +868,7 @@
         <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>8.800000000000001</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
         <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X5" t="n">
         <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
         <v>46</v>
@@ -1138,7 +1138,7 @@
         <v>170</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
         <v>10.5</v>
@@ -1171,7 +1171,7 @@
         <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
         <v>9.199999999999999</v>
@@ -1225,7 +1225,7 @@
         <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1345,46 +1345,46 @@
         <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I7" t="n">
         <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
         <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P7" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S7" t="n">
         <v>5.7</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
         <v>1.68</v>
@@ -1393,7 +1393,7 @@
         <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X7" t="n">
         <v>9.4</v>
@@ -1516,7 +1516,7 @@
         <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
         <v>1.86</v>
@@ -1753,7 +1753,7 @@
         <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
         <v>6.6</v>
@@ -1771,7 +1771,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
@@ -1780,13 +1780,13 @@
         <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
         <v>1.05</v>
@@ -1798,7 +1798,7 @@
         <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G11" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>4.9</v>
@@ -1915,7 +1915,7 @@
         <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
         <v>1.21</v>
@@ -1933,13 +1933,13 @@
         <v>1.22</v>
       </c>
       <c r="W11" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X11" t="n">
         <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
         <v>55</v>
@@ -1954,7 +1954,7 @@
         <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -1966,7 +1966,7 @@
         <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -2041,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.94</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2053,16 +2053,16 @@
         <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
         <v>1.27</v>
@@ -2071,58 +2071,58 @@
         <v>1.87</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="G13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="I13" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
         <v>4.1</v>
@@ -2176,7 +2176,7 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
@@ -2191,16 +2191,16 @@
         <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
         <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>1.29</v>
@@ -2242,7 +2242,7 @@
         <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="n">
         <v>48</v>
@@ -2302,7 +2302,7 @@
         <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
         <v>1.37</v>
@@ -2341,58 +2341,58 @@
         <v>1.5</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>17</v>
       </c>
-      <c r="Z14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>22</v>
-      </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AK14" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN14" t="n">
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J15" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.3</v>
       </c>
       <c r="K15" t="n">
         <v>5.2</v>
@@ -2446,34 +2446,34 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="O15" t="n">
         <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="R15" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="S15" t="n">
-        <v>2.16</v>
+        <v>1.78</v>
       </c>
       <c r="T15" t="n">
         <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V15" t="n">
         <v>1.22</v>
       </c>
       <c r="W15" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2560,7 +2560,7 @@
         <v>1.67</v>
       </c>
       <c r="G16" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="H16" t="n">
         <v>5.8</v>
@@ -2578,13 +2578,13 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
         <v>1.69</v>
@@ -2593,10 +2593,10 @@
         <v>2.18</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
         <v>2.06</v>
@@ -2608,7 +2608,7 @@
         <v>1.16</v>
       </c>
       <c r="W16" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G17" t="n">
         <v>5.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I17" t="n">
         <v>2.36</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
         <v>6.2</v>
@@ -2719,19 +2719,19 @@
         <v>2.66</v>
       </c>
       <c r="O17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T17" t="n">
         <v>1.05</v>
@@ -2740,10 +2740,10 @@
         <v>1.05</v>
       </c>
       <c r="V17" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W17" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2863,7 +2863,7 @@
         <v>1.7</v>
       </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
         <v>2.68</v>
@@ -2872,7 +2872,7 @@
         <v>1.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
         <v>1.29</v>
@@ -2881,7 +2881,7 @@
         <v>1.94</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
         <v>24</v>
@@ -2929,16 +2929,16 @@
         <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.66</v>
+        <v>2.88</v>
       </c>
       <c r="G19" t="n">
-        <v>1.68</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>2.64</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
         <v>2.94</v>
       </c>
       <c r="I20" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="K20" t="n">
         <v>3.15</v>
@@ -3118,97 +3118,97 @@
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>1.1</v>
+        <v>2.42</v>
       </c>
       <c r="O20" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="R20" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.05</v>
+        <v>2.14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="X20" t="n">
         <v>9.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.88</v>
+        <v>1.66</v>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>1.68</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.64</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="G22" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P22" t="n">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="T22" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AA22" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AF22" t="n">
         <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
       </c>
       <c r="AK22" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cracovia Krakow</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>4.7</v>
       </c>
       <c r="G23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2.36</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.96</v>
       </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wisla Krakow</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L24" t="n">
         <v>1.4</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P24" t="n">
-        <v>2.96</v>
+        <v>1.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.37</v>
+        <v>2.34</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="G25" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>4.2</v>
+        <v>2.58</v>
       </c>
       <c r="O25" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="S25" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X25" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.42</v>
+        <v>2.98</v>
       </c>
       <c r="G26" t="n">
-        <v>2.44</v>
+        <v>3.95</v>
       </c>
       <c r="H26" t="n">
-        <v>3.65</v>
+        <v>2.38</v>
       </c>
       <c r="I26" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S26" t="n">
         <v>3.7</v>
       </c>
-      <c r="J26" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5.1</v>
-      </c>
       <c r="T26" t="n">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="U26" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X26" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="G27" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S27" t="n">
         <v>3.45</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
       <c r="T27" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
         <v>12</v>
       </c>
-      <c r="Y27" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>9</v>
-      </c>
       <c r="AC27" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AI27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL27" t="n">
         <v>60</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>42</v>
-      </c>
       <c r="AM27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="G28" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="P28" t="n">
         <v>1.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="R28" t="n">
         <v>1.26</v>
       </c>
       <c r="S28" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="U28" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="X28" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,260 +4298,4715 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Boulogne</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Dutch Eredivisie</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Jong PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>46</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Jong FC Utrecht</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X37" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FC Oss</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Vitesse Arnhem</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X38" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Jong Ajax Amsterdam</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="X39" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X40" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X42" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>FC Vaduz</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Etoile Carouge</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Polish Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Lechia Gdansk</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Cracovia Krakow</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X45" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>US Latina Calcio</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Cavese 1919</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Polish I Liga</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Wisla Krakow</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>GKS Tychy</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="X48" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X49" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Austrian Bundesliga</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Red Bull Salzburg</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>AZ Picerno ASD</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K51" t="n">
+        <v>12</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X52" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Galway Utd</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Drogheda</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W54" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="X54" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Waterford</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X56" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Connahs Quay</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Briton Ferry Llansawel</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X60" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X61" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H62" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W62" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X62" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>2026-02-06</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>20:20:00</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Deportivo Pasto</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="F63" t="n">
         <v>3.4</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G63" t="n">
         <v>3.8</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H63" t="n">
         <v>2.46</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I63" t="n">
         <v>2.68</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J63" t="n">
         <v>2.84</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K63" t="n">
         <v>3.15</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
         <v>1.45</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q63" t="n">
         <v>2.88</v>
       </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="n">
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO63" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AO68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
         <v>2.12</v>
@@ -721,7 +721,7 @@
         <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
         <v>12.5</v>
@@ -805,13 +805,13 @@
         <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -826,43 +826,43 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X3" t="n">
         <v>19.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
         <v>65</v>
@@ -889,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -901,13 +901,13 @@
         <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>600</v>
+        <v>7.6</v>
       </c>
       <c r="H4" t="n">
         <v>1.64</v>
@@ -1075,13 +1075,13 @@
         <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
         <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
@@ -1108,7 +1108,7 @@
         <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>2.96</v>
@@ -1123,7 +1123,7 @@
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X5" t="n">
         <v>22</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J6" t="n">
         <v>2.68</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.7</v>
       </c>
       <c r="K6" t="n">
         <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1258,7 +1258,7 @@
         <v>1.49</v>
       </c>
       <c r="W6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X6" t="n">
         <v>8.199999999999999</v>
@@ -1357,25 +1357,25 @@
         <v>2.84</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="M7" t="n">
         <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P7" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="R7" t="n">
         <v>1.17</v>
@@ -1384,16 +1384,16 @@
         <v>5.7</v>
       </c>
       <c r="T7" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U7" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
         <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X7" t="n">
         <v>9.4</v>
@@ -1417,7 +1417,7 @@
         <v>19.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="n">
         <v>13.5</v>
@@ -1489,7 +1489,7 @@
         <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>3.9</v>
@@ -1543,7 +1543,7 @@
         <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
         <v>9.4</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="H9" t="n">
         <v>2.52</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
@@ -2086,7 +2086,7 @@
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
         <v>19.5</v>
@@ -2161,7 +2161,7 @@
         <v>1.87</v>
       </c>
       <c r="I13" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2182,13 +2182,13 @@
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q13" t="n">
         <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
         <v>2.54</v>
@@ -2200,10 +2200,10 @@
         <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X13" t="n">
         <v>22</v>
@@ -2257,7 +2257,7 @@
         <v>40</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="14">
@@ -2296,7 +2296,7 @@
         <v>2.56</v>
       </c>
       <c r="I14" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J14" t="n">
         <v>3.5</v>
@@ -2320,7 +2320,7 @@
         <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R14" t="n">
         <v>1.39</v>
@@ -2341,13 +2341,13 @@
         <v>1.5</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
         <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AA14" t="n">
         <v>40</v>
@@ -2446,7 +2446,7 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>2.74</v>
+        <v>1.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.13</v>
@@ -2455,13 +2455,13 @@
         <v>2.74</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="R15" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="T15" t="n">
         <v>1.05</v>
@@ -2584,7 +2584,7 @@
         <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
         <v>1.69</v>
@@ -2845,7 +2845,7 @@
         <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -2884,55 +2884,55 @@
         <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="J19" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="K19" t="n">
         <v>2.9</v>
@@ -2986,10 +2986,10 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="O19" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P19" t="n">
         <v>1.34</v>
@@ -3007,13 +3007,13 @@
         <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="X19" t="n">
         <v>7.8</v>
@@ -3022,13 +3022,13 @@
         <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC19" t="n">
         <v>9.6</v>
@@ -3040,7 +3040,7 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
         <v>970</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G20" t="n">
         <v>3.25</v>
@@ -3112,7 +3112,7 @@
         <v>2.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3124,13 +3124,13 @@
         <v>2.42</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="P20" t="n">
         <v>1.47</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="R20" t="n">
         <v>1.17</v>
@@ -3139,7 +3139,7 @@
         <v>5.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="n">
         <v>1.73</v>
@@ -3238,7 +3238,7 @@
         <v>1.68</v>
       </c>
       <c r="H21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I21" t="n">
         <v>6</v>
@@ -3376,13 +3376,13 @@
         <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J22" t="n">
         <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3406,10 +3406,10 @@
         <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U22" t="n">
         <v>1.91</v>
@@ -3418,16 +3418,16 @@
         <v>1.24</v>
       </c>
       <c r="W22" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X22" t="n">
         <v>14.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA22" t="n">
         <v>140</v>
@@ -3445,7 +3445,7 @@
         <v>85</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3454,10 +3454,10 @@
         <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
         <v>28</v>
@@ -3505,7 +3505,7 @@
         <v>4.7</v>
       </c>
       <c r="G23" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H23" t="n">
         <v>1.88</v>
@@ -3556,40 +3556,40 @@
         <v>1.19</v>
       </c>
       <c r="X23" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
@@ -3640,10 +3640,10 @@
         <v>4.3</v>
       </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="I24" t="n">
         <v>2.16</v>
@@ -3655,13 +3655,13 @@
         <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.61</v>
+        <v>2.38</v>
       </c>
       <c r="O24" t="n">
         <v>1.47</v>
@@ -3679,16 +3679,16 @@
         <v>3.85</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V24" t="n">
         <v>1.86</v>
       </c>
       <c r="W24" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3787,7 +3787,7 @@
         <v>3.35</v>
       </c>
       <c r="K25" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,10 +3796,10 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P25" t="n">
         <v>1.73</v>
@@ -3808,28 +3808,28 @@
         <v>2.02</v>
       </c>
       <c r="R25" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="U25" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="V25" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="W25" t="n">
         <v>1.22</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3841,7 +3841,7 @@
         <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>
@@ -4069,7 +4069,7 @@
         <v>2.72</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P27" t="n">
         <v>1.73</v>
@@ -4078,10 +4078,10 @@
         <v>1.99</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T27" t="n">
         <v>1.05</v>
@@ -4114,7 +4114,7 @@
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE27" t="n">
         <v>75</v>
@@ -4126,7 +4126,7 @@
         <v>15.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI27" t="n">
         <v>90</v>
@@ -4183,10 +4183,10 @@
         <v>2.04</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J28" t="n">
         <v>3.3</v>
@@ -4315,7 +4315,7 @@
         <v>2.56</v>
       </c>
       <c r="G29" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
         <v>2.66</v>
@@ -4342,7 +4342,7 @@
         <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q29" t="n">
         <v>1.86</v>
@@ -4363,10 +4363,10 @@
         <v>1.47</v>
       </c>
       <c r="W29" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="X29" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y29" t="n">
         <v>14</v>
@@ -4396,7 +4396,7 @@
         <v>14.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI29" t="n">
         <v>48</v>
@@ -4462,7 +4462,7 @@
         <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4477,13 +4477,13 @@
         <v>1.35</v>
       </c>
       <c r="P30" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q30" t="n">
         <v>2.08</v>
       </c>
       <c r="R30" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S30" t="n">
         <v>3.35</v>
@@ -4492,7 +4492,7 @@
         <v>1.05</v>
       </c>
       <c r="U30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="V30" t="n">
         <v>1.39</v>
@@ -4543,13 +4543,13 @@
         <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4597,7 +4597,7 @@
         <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4609,7 +4609,7 @@
         <v>3.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P31" t="n">
         <v>1.73</v>
@@ -4624,10 +4624,10 @@
         <v>3.95</v>
       </c>
       <c r="T31" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U31" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V31" t="n">
         <v>1.34</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G32" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="H32" t="n">
         <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J32" t="n">
         <v>3.6</v>
@@ -4765,10 +4765,10 @@
         <v>1.61</v>
       </c>
       <c r="V32" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W32" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="X32" t="n">
         <v>17</v>
@@ -4801,13 +4801,13 @@
         <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK32" t="n">
         <v>30</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4852,61 +4852,61 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H33" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I33" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>1.66</v>
+        <v>2.6</v>
       </c>
       <c r="O33" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P33" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="R33" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="T33" t="n">
         <v>1.94</v>
       </c>
       <c r="U33" t="n">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="V33" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X33" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
         <v>17</v>
@@ -4924,7 +4924,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE33" t="n">
         <v>100</v>
@@ -4936,7 +4936,7 @@
         <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
@@ -4945,16 +4945,16 @@
         <v>29</v>
       </c>
       <c r="AK33" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="G34" t="n">
-        <v>2.94</v>
+        <v>2.64</v>
       </c>
       <c r="H34" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="J34" t="n">
         <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,52 +5011,52 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P34" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R34" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>1.05</v>
+        <v>2.22</v>
       </c>
       <c r="T34" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="U34" t="n">
         <v>1.92</v>
       </c>
       <c r="V34" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="W34" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="X34" t="n">
         <v>14.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z34" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD34" t="n">
         <v>1000</v>
@@ -5065,13 +5065,13 @@
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG34" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G35" t="n">
         <v>1.92</v>
@@ -5137,7 +5137,7 @@
         <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L35" t="n">
         <v>1.34</v>
@@ -5146,25 +5146,25 @@
         <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S35" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="T35" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U35" t="n">
         <v>2.02</v>
@@ -5173,61 +5173,61 @@
         <v>1.29</v>
       </c>
       <c r="W35" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y35" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>25</v>
       </c>
-      <c r="Z35" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>26</v>
-      </c>
       <c r="AK35" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL35" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM35" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="G36" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="H36" t="n">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="I36" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="J36" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="P36" t="n">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="R36" t="n">
-        <v>1.86</v>
+        <v>1.54</v>
       </c>
       <c r="S36" t="n">
-        <v>1.75</v>
+        <v>2.08</v>
       </c>
       <c r="T36" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="U36" t="n">
-        <v>2.88</v>
+        <v>1.05</v>
       </c>
       <c r="V36" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="W36" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z36" t="n">
         <v>34</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AA36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>38</v>
       </c>
-      <c r="AA36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>48</v>
-      </c>
       <c r="AK36" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM36" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -5383,31 +5383,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="G37" t="n">
-        <v>2.24</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="I37" t="n">
-        <v>3.4</v>
+        <v>2.56</v>
       </c>
       <c r="J37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K37" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,88 +5416,88 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="O37" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>2.64</v>
+        <v>2.18</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="S37" t="n">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="T37" t="n">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="U37" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="V37" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="W37" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="X37" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
         <v>38</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AB37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF37" t="n">
         <v>28</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>24</v>
       </c>
       <c r="AG37" t="n">
         <v>16</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK37" t="n">
         <v>38</v>
       </c>
-      <c r="AK37" t="n">
+      <c r="AL37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN37" t="n">
         <v>28</v>
       </c>
-      <c r="AL37" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="38">
@@ -5518,31 +5518,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.88</v>
+        <v>1.46</v>
       </c>
       <c r="G38" t="n">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="H38" t="n">
-        <v>2.28</v>
+        <v>5.6</v>
       </c>
       <c r="I38" t="n">
-        <v>2.56</v>
+        <v>6.8</v>
       </c>
       <c r="J38" t="n">
-        <v>3.55</v>
+        <v>5.2</v>
       </c>
       <c r="K38" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5551,88 +5551,88 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="P38" t="n">
-        <v>2.18</v>
+        <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="R38" t="n">
-        <v>1.42</v>
+        <v>2.04</v>
       </c>
       <c r="S38" t="n">
-        <v>2.38</v>
+        <v>1.6</v>
       </c>
       <c r="T38" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="U38" t="n">
-        <v>1.98</v>
+        <v>2.66</v>
       </c>
       <c r="V38" t="n">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>1.44</v>
+        <v>2.78</v>
       </c>
       <c r="X38" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC38" t="n">
         <v>23</v>
       </c>
-      <c r="Y38" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA38" t="n">
+      <c r="AD38" t="n">
         <v>38</v>
       </c>
-      <c r="AB38" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE38" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AF38" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI38" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AK38" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AM38" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.47</v>
+        <v>2.58</v>
       </c>
       <c r="G39" t="n">
-        <v>1.55</v>
+        <v>2.82</v>
       </c>
       <c r="H39" t="n">
-        <v>5.6</v>
+        <v>2.38</v>
       </c>
       <c r="I39" t="n">
-        <v>6.8</v>
+        <v>2.6</v>
       </c>
       <c r="J39" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="K39" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P39" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="R39" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="S39" t="n">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="T39" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="U39" t="n">
-        <v>2.22</v>
+        <v>2.88</v>
       </c>
       <c r="V39" t="n">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="W39" t="n">
-        <v>2.78</v>
+        <v>1.55</v>
       </c>
       <c r="X39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="Z39" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB39" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AE39" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AF39" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AG39" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AH39" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AK39" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AL39" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM39" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="40">
@@ -5800,7 +5800,7 @@
         <v>3.3</v>
       </c>
       <c r="G40" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H40" t="n">
         <v>2.04</v>
@@ -5818,7 +5818,7 @@
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
         <v>5.2</v>
@@ -5833,13 +5833,13 @@
         <v>1.59</v>
       </c>
       <c r="R40" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T40" t="n">
         <v>1.57</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.54</v>
       </c>
       <c r="U40" t="n">
         <v>2.44</v>
@@ -5848,7 +5848,7 @@
         <v>1.8</v>
       </c>
       <c r="W40" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X40" t="n">
         <v>29</v>
@@ -5956,7 +5956,7 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>2.46</v>
+        <v>4.1</v>
       </c>
       <c r="O41" t="n">
         <v>1.17</v>
@@ -5968,16 +5968,16 @@
         <v>1.56</v>
       </c>
       <c r="R41" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S41" t="n">
         <v>2.2</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V41" t="n">
         <v>1.47</v>
@@ -6121,10 +6121,10 @@
         <v>1.83</v>
       </c>
       <c r="X42" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="Y42" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Z42" t="n">
         <v>40</v>
@@ -6133,7 +6133,7 @@
         <v>70</v>
       </c>
       <c r="AB42" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AC42" t="n">
         <v>15.5</v>
@@ -6169,7 +6169,7 @@
         <v>65</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="G43" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H43" t="n">
         <v>4.7</v>
       </c>
       <c r="I43" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="J43" t="n">
         <v>4</v>
@@ -6226,16 +6226,16 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="O43" t="n">
         <v>1.19</v>
       </c>
       <c r="P43" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="R43" t="n">
         <v>1.46</v>
@@ -6244,22 +6244,22 @@
         <v>2.26</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V43" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W43" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="X43" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Y43" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Z43" t="n">
         <v>1000</v>
@@ -6268,13 +6268,13 @@
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AD43" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AE43" t="n">
         <v>1000</v>
@@ -6283,10 +6283,10 @@
         <v>15.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH43" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AI43" t="n">
         <v>1000</v>
@@ -6346,7 +6346,7 @@
         <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J44" t="n">
         <v>3.1</v>
@@ -6358,10 +6358,10 @@
         <v>1.52</v>
       </c>
       <c r="M44" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="O44" t="n">
         <v>1.44</v>
@@ -6373,7 +6373,7 @@
         <v>2.46</v>
       </c>
       <c r="R44" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S44" t="n">
         <v>4.4</v>
@@ -6391,7 +6391,7 @@
         <v>1.68</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,31 +6463,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Wisla Krakow</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cracovia Krakow</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.16</v>
+        <v>1.4</v>
       </c>
       <c r="G45" t="n">
-        <v>2.36</v>
+        <v>1.53</v>
       </c>
       <c r="H45" t="n">
-        <v>3.35</v>
+        <v>5.4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="J45" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="K45" t="n">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,79 +6496,79 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.86</v>
+        <v>2.96</v>
       </c>
       <c r="O45" t="n">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="P45" t="n">
-        <v>1.86</v>
+        <v>2.96</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.96</v>
+        <v>1.37</v>
       </c>
       <c r="R45" t="n">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>1.87</v>
       </c>
       <c r="T45" t="n">
-        <v>1.66</v>
+        <v>1.05</v>
       </c>
       <c r="U45" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="V45" t="n">
-        <v>1.35</v>
+        <v>1.11</v>
       </c>
       <c r="W45" t="n">
-        <v>1.73</v>
+        <v>2.86</v>
       </c>
       <c r="X45" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
         <v>1000</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,31 +6598,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Cracovia Krakow</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="G46" t="n">
-        <v>3.05</v>
+        <v>2.36</v>
       </c>
       <c r="H46" t="n">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="I46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J46" t="n">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="K46" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,85 +6631,85 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P46" t="n">
-        <v>1.37</v>
+        <v>1.86</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.46</v>
+        <v>1.97</v>
       </c>
       <c r="R46" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S46" t="n">
-        <v>2.46</v>
+        <v>3.1</v>
       </c>
       <c r="T46" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U46" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V46" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W46" t="n">
-        <v>1.49</v>
+        <v>1.73</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,31 +6733,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wisla Krakow</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.4</v>
+        <v>2.12</v>
       </c>
       <c r="G47" t="n">
-        <v>1.47</v>
+        <v>2.86</v>
       </c>
       <c r="H47" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>4.6</v>
       </c>
       <c r="J47" t="n">
-        <v>4.8</v>
+        <v>2.66</v>
       </c>
       <c r="K47" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,34 +6766,34 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>2.96</v>
+        <v>2.24</v>
       </c>
       <c r="O47" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>2.96</v>
+        <v>1.43</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.37</v>
+        <v>2.26</v>
       </c>
       <c r="R47" t="n">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>1.87</v>
+        <v>2.68</v>
       </c>
       <c r="T47" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U47" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V47" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="W47" t="n">
-        <v>3.1</v>
+        <v>1.53</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="G48" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W48" t="n">
         <v>1.81</v>
       </c>
-      <c r="H48" t="n">
-        <v>5</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K48" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N48" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U48" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W48" t="n">
-        <v>2.22</v>
-      </c>
       <c r="X48" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="Z48" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AA48" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AB48" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD48" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE48" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AF48" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG48" t="n">
         <v>10.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AJ48" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AK48" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AL48" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM48" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN48" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,121 +7003,121 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="G49" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W49" t="n">
         <v>2.22</v>
       </c>
-      <c r="H49" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.81</v>
-      </c>
       <c r="X49" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Y49" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Z49" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AA49" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE49" t="n">
         <v>70</v>
       </c>
-      <c r="AB49" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>44</v>
-      </c>
       <c r="AF49" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG49" t="n">
         <v>10.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AI49" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AJ49" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AK49" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AL49" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM49" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN49" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G50" t="n">
         <v>1.8</v>
@@ -7282,58 +7282,58 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="G51" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="H51" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I51" t="n">
         <v>1000</v>
       </c>
       <c r="J51" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="K51" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M51" t="n">
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="O51" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="R51" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="S51" t="n">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V51" t="n">
         <v>1.01</v>
       </c>
       <c r="W51" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,127 +7408,127 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.8</v>
+        <v>1.74</v>
       </c>
       <c r="G52" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
-        <v>1.79</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>1.81</v>
+        <v>6.4</v>
       </c>
       <c r="J52" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="K52" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="O52" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="P52" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="R52" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="S52" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="T52" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="U52" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="V52" t="n">
-        <v>2.22</v>
+        <v>1.18</v>
       </c>
       <c r="W52" t="n">
-        <v>1.25</v>
+        <v>1.91</v>
       </c>
       <c r="X52" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA52" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD52" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH52" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI52" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7543,127 +7543,127 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Galway Utd</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.06</v>
+        <v>2.68</v>
       </c>
       <c r="G53" t="n">
-        <v>2.26</v>
+        <v>3.3</v>
       </c>
       <c r="H53" t="n">
-        <v>3.95</v>
+        <v>2.2</v>
       </c>
       <c r="I53" t="n">
-        <v>4.6</v>
+        <v>2.84</v>
       </c>
       <c r="J53" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K53" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>2.96</v>
+        <v>2.52</v>
       </c>
       <c r="O53" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="P53" t="n">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="R53" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="S53" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V53" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="W53" t="n">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="X53" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z53" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG53" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH53" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI53" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL53" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM53" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7678,127 +7678,127 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.52</v>
+        <v>2.4</v>
       </c>
       <c r="G54" t="n">
-        <v>1.63</v>
+        <v>2.42</v>
       </c>
       <c r="H54" t="n">
-        <v>7.2</v>
+        <v>3.65</v>
       </c>
       <c r="I54" t="n">
-        <v>9.6</v>
+        <v>3.7</v>
       </c>
       <c r="J54" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K54" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N54" t="n">
-        <v>1.84</v>
+        <v>2.9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="P54" t="n">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="R54" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="S54" t="n">
-        <v>3.15</v>
+        <v>5.1</v>
       </c>
       <c r="T54" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U54" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V54" t="n">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="W54" t="n">
-        <v>2.58</v>
+        <v>1.7</v>
       </c>
       <c r="X54" t="n">
-        <v>19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y54" t="n">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB54" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC54" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AD54" t="n">
-        <v>44</v>
+        <v>15.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF54" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH54" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="n">
         <v>32</v>
       </c>
-      <c r="AI54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>18</v>
-      </c>
       <c r="AK54" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AL54" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,127 +7813,127 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="G55" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>2.3</v>
+        <v>1.79</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
+        <v>1.81</v>
       </c>
       <c r="J55" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L55" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="O55" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="P55" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="R55" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="S55" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="T55" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V55" t="n">
-        <v>1.63</v>
+        <v>2.22</v>
       </c>
       <c r="W55" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="X55" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y55" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z55" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA55" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AB55" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD55" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AE55" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF55" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG55" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK55" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL55" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM55" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN55" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,127 +7948,127 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="G56" t="n">
-        <v>2.42</v>
+        <v>1.63</v>
       </c>
       <c r="H56" t="n">
-        <v>3.65</v>
+        <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>3.7</v>
+        <v>9.6</v>
       </c>
       <c r="J56" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="K56" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="L56" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="O56" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P56" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="R56" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="T56" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="U56" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="V56" t="n">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="W56" t="n">
-        <v>1.7</v>
+        <v>2.58</v>
       </c>
       <c r="X56" t="n">
-        <v>9.199999999999999</v>
+        <v>19</v>
       </c>
       <c r="Y56" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z56" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA56" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AC56" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AD56" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE56" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI56" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AK56" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AL56" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM56" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AO56" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8083,127 +8083,127 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Galway Utd</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="G57" t="n">
         <v>2.24</v>
       </c>
       <c r="H57" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="I57" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J57" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K57" t="n">
-        <v>7.8</v>
+        <v>3.6</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>1.92</v>
+        <v>2.96</v>
       </c>
       <c r="O57" t="n">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="P57" t="n">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="R57" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="S57" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U57" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V57" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="W57" t="n">
         <v>1.8</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB57" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC57" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD57" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF57" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG57" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI57" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK57" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL57" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8218,67 +8218,67 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="G58" t="n">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="H58" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I58" t="n">
-        <v>3.35</v>
+        <v>2.52</v>
       </c>
       <c r="J58" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K58" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>2.18</v>
+        <v>3.35</v>
       </c>
       <c r="O58" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="P58" t="n">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="R58" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="S58" t="n">
-        <v>2.44</v>
+        <v>3.35</v>
       </c>
       <c r="T58" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U58" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V58" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="W58" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8395,10 +8395,10 @@
         <v>1.83</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R59" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S59" t="n">
         <v>4</v>
@@ -8521,7 +8521,7 @@
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>2.02</v>
+        <v>2.98</v>
       </c>
       <c r="O60" t="n">
         <v>1.29</v>
@@ -8533,19 +8533,19 @@
         <v>1.84</v>
       </c>
       <c r="R60" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S60" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T60" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U60" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V60" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W60" t="n">
         <v>2.6</v>
@@ -8599,7 +8599,7 @@
         <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO60" t="n">
         <v>1000</v>
@@ -8698,13 +8698,13 @@
         <v>110</v>
       </c>
       <c r="AB61" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC61" t="n">
         <v>7.6</v>
       </c>
       <c r="AD61" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE61" t="n">
         <v>70</v>
@@ -8767,10 +8767,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G62" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="H62" t="n">
         <v>5.4</v>
@@ -8779,10 +8779,10 @@
         <v>7.2</v>
       </c>
       <c r="J62" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K62" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8791,16 +8791,16 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>1.03</v>
+        <v>2.54</v>
       </c>
       <c r="O62" t="n">
         <v>1.38</v>
       </c>
       <c r="P62" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R62" t="n">
         <v>1.2</v>
@@ -8809,37 +8809,37 @@
         <v>3.55</v>
       </c>
       <c r="T62" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U62" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V62" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="W62" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="X62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y62" t="n">
         <v>18.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA62" t="n">
         <v>210</v>
       </c>
       <c r="AB62" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC62" t="n">
         <v>9.6</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE62" t="n">
         <v>120</v>
@@ -8851,7 +8851,7 @@
         <v>12</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI62" t="n">
         <v>130</v>
@@ -8869,144 +8869,819 @@
         <v>200</v>
       </c>
       <c r="AN62" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO62" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sportivo San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Deportivo Recoleta</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Portuguesa FC</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Deportivo Tachira</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Albion FC</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Liverpool Montevideo</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Club Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>2026-02-06</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>20:20:00</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Deportivo Pasto</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
+      <c r="F67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
         <v>1.45</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q67" t="n">
         <v>2.88</v>
       </c>
-      <c r="R63" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO63" t="n">
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Academia Anzoategui FC</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K68" t="n">
+        <v>950</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO68" t="n">
         <v>0</v>
       </c>
     </row>
